--- a/timetable all sections in Batch.xlsx
+++ b/timetable all sections in Batch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="79">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -118,7 +118,7 @@
     <t>Advance Database Concepts</t>
   </si>
   <si>
-    <t>Web Progamming</t>
+    <t>Web Programming</t>
   </si>
   <si>
     <t>Software Design &amp; Analysis</t>
@@ -166,6 +166,9 @@
     <t>Wednesday</t>
   </si>
   <si>
+    <t>Modern Politics &amp; Gov</t>
+  </si>
+  <si>
     <t>Artificial Intelligence</t>
   </si>
   <si>
@@ -181,9 +184,6 @@
     <t>Software for Mobile Devices</t>
   </si>
   <si>
-    <t>Modern Politics &amp; Gov</t>
-  </si>
-  <si>
     <t>Saturday</t>
   </si>
   <si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>BCS-6F</t>
+  </si>
+  <si>
+    <t>E&amp;M-3</t>
   </si>
   <si>
     <t>BCS-6G</t>
@@ -922,157 +925,157 @@
         <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>11</v>
@@ -1080,21 +1083,21 @@
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>14</v>
@@ -1102,61 +1105,61 @@
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>11</v>
@@ -1164,50 +1167,50 @@
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="1" t="s">
+    <row r="57" spans="2:4">
+      <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>11</v>
@@ -1307,7 +1310,7 @@
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>37</v>
@@ -1358,7 +1361,7 @@
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1387,7 +1390,7 @@
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>37</v>
@@ -1409,14 +1412,14 @@
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>32</v>
@@ -1434,7 +1437,7 @@
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>32</v>
@@ -1456,7 +1459,7 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>63</v>
@@ -1537,7 +1540,7 @@
     </row>
     <row r="93" spans="2:4">
       <c r="B93" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>16</v>
@@ -1577,7 +1580,7 @@
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -1606,7 +1609,7 @@
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>16</v>
@@ -1617,7 +1620,7 @@
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -1642,7 +1645,7 @@
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>66</v>
@@ -1712,7 +1715,7 @@
     </row>
     <row r="112" spans="2:4">
       <c r="B112" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>37</v>
@@ -1763,14 +1766,14 @@
     </row>
     <row r="117" spans="2:4">
       <c r="B117" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
     <row r="118" spans="2:4">
       <c r="B118" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>37</v>
@@ -1792,7 +1795,7 @@
     </row>
     <row r="120" spans="2:4">
       <c r="B120" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -1854,7 +1857,7 @@
     </row>
     <row r="128" spans="2:4">
       <c r="B128" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>68</v>
@@ -1883,7 +1886,7 @@
     </row>
     <row r="131" spans="2:4">
       <c r="B131" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -1901,7 +1904,7 @@
     </row>
     <row r="133" spans="2:4">
       <c r="B133" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>68</v>
@@ -1912,7 +1915,7 @@
     </row>
     <row r="134" spans="2:4">
       <c r="B134" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -1967,7 +1970,7 @@
     </row>
     <row r="141" spans="2:4">
       <c r="B141" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>16</v>
@@ -1988,10 +1991,10 @@
         <v>24</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="2:4">
@@ -2025,7 +2028,7 @@
     </row>
     <row r="147" spans="2:4">
       <c r="B147" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>13</v>
@@ -2036,28 +2039,28 @@
     </row>
     <row r="148" spans="2:4">
       <c r="B148" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
     <row r="149" spans="2:4">
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4">
-      <c r="B150" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
+      <c r="C150" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="151" spans="2:4">
       <c r="B151" s="1" t="s">
@@ -2073,7 +2076,7 @@
     </row>
     <row r="153" spans="2:4">
       <c r="B153" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -2087,10 +2090,10 @@
     </row>
     <row r="155" spans="2:4">
       <c r="B155" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>17</v>
@@ -2123,10 +2126,10 @@
     </row>
     <row r="159" spans="2:4">
       <c r="B159" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>17</v>
@@ -2134,14 +2137,14 @@
     </row>
     <row r="160" spans="2:4">
       <c r="B160" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="2:4">
       <c r="B161" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -2160,7 +2163,7 @@
     </row>
     <row r="164" spans="2:4">
       <c r="B164" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -2174,10 +2177,10 @@
     </row>
     <row r="166" spans="2:4">
       <c r="B166" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>8</v>
@@ -2199,10 +2202,10 @@
     </row>
     <row r="169" spans="2:4">
       <c r="B169" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>8</v>
@@ -2210,7 +2213,7 @@
     </row>
     <row r="170" spans="2:4">
       <c r="B170" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -2228,7 +2231,7 @@
     </row>
     <row r="172" spans="2:4">
       <c r="B172" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -2247,7 +2250,7 @@
     </row>
     <row r="175" spans="2:4">
       <c r="B175" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -2268,10 +2271,10 @@
     </row>
     <row r="178" spans="2:4">
       <c r="B178" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>8</v>
@@ -2286,17 +2289,17 @@
     </row>
     <row r="180" spans="2:4">
       <c r="B180" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
     <row r="181" spans="2:4">
       <c r="B181" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>8</v>
@@ -2304,7 +2307,7 @@
     </row>
     <row r="182" spans="2:4">
       <c r="B182" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -2317,7 +2320,7 @@
         <v>70</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="184" spans="2:4">
@@ -2333,9 +2336,9 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B57:D57"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B66:D66"/>
@@ -2369,7 +2372,7 @@
     <mergeCell ref="B142:D142"/>
     <mergeCell ref="B145:D145"/>
     <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B149:D149"/>
     <mergeCell ref="B151:D151"/>
     <mergeCell ref="B153:D153"/>
     <mergeCell ref="B154:D154"/>
